--- a/Examples/SimplePayroll/Payroll.Values.xlsx
+++ b/Examples/SimplePayroll/Payroll.Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\Ason\Repos\payroll.backend\.payrolls\SimplePayroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\PayrollEngine\Repos\PayrollEngine\Examples\SimplePayroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92554FCF-9556-4142-8B89-3C13F631CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4995C213-733C-4297-8094-6C5536FF9CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -448,19 +448,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -500,9 +494,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -527,9 +518,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,9 +558,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,26 +593,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,26 +628,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,7 +809,7 @@
   </sheetPr>
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD52"/>
@@ -876,10 +833,10 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
@@ -893,7 +850,7 @@
       <c r="B5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -901,7 +858,7 @@
       <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -909,7 +866,7 @@
       <c r="B7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -917,7 +874,7 @@
       <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -930,27 +887,27 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -1070,10 +1027,10 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4"/>
@@ -1196,20 +1153,20 @@
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1336,20 +1293,20 @@
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -1402,7 +1359,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1490,47 +1447,47 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="18" customWidth="1"/>
-    <col min="7" max="8" width="15.6328125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" style="23" customWidth="1"/>
+    <col min="3" max="4" width="20.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="16" customWidth="1"/>
+    <col min="7" max="8" width="15.6328125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" style="21" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1538,35 +1495,35 @@
       <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="19">
-        <v>43092</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="E2" s="17">
+        <v>46744</v>
+      </c>
+      <c r="F2" s="3">
         <f>0.05125</f>
         <v>5.1249999999999997E-2</v>
       </c>
-      <c r="G2" s="19">
-        <v>43101</v>
-      </c>
-      <c r="I2" s="32"/>
+      <c r="G2" s="17">
+        <v>44562</v>
+      </c>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I3" s="32"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I4" s="32"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I5" s="32"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I7" s="32"/>
+      <c r="I7" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:I1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -1588,48 +1545,48 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6328125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="23" customWidth="1"/>
+    <col min="3" max="4" width="20.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6328125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="21" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1637,46 +1594,46 @@
       <c r="B2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="19">
-        <v>43101</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="17">
+        <v>44562</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="19">
-        <v>43101</v>
-      </c>
-      <c r="I2" s="32"/>
+      <c r="G2" s="17">
+        <v>44562</v>
+      </c>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I3" s="32"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I4" s="32"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I5" s="32"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I7" s="32"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I8" s="32"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I9" s="32"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I11" s="32"/>
+      <c r="I11" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:I1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -1696,53 +1653,53 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="18" customWidth="1"/>
-    <col min="8" max="9" width="15.6328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" style="23" customWidth="1"/>
+    <col min="4" max="5" width="20.6328125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="15.6328125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" style="21" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1750,259 +1707,259 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19">
-        <v>43084</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="17">
+        <v>44545</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="19">
-        <v>43101</v>
-      </c>
-      <c r="I2" s="19">
-        <v>44196</v>
-      </c>
-      <c r="J2" s="32"/>
+      <c r="H2" s="17">
+        <v>44562</v>
+      </c>
+      <c r="I2" s="17">
+        <v>45657</v>
+      </c>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="19">
-        <v>43501</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="17">
+        <v>44962</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="19">
-        <v>43506</v>
-      </c>
-      <c r="J3" s="32"/>
+      <c r="H3" s="17">
+        <v>44967</v>
+      </c>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="19">
-        <v>43126</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="17">
+        <v>44587</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="19">
-        <v>43466</v>
-      </c>
-      <c r="J4" s="32"/>
+      <c r="H4" s="17">
+        <v>44927</v>
+      </c>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="19">
-        <v>43491</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="17">
+        <v>44952</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="19">
-        <v>43511</v>
-      </c>
-      <c r="J5" s="32"/>
+      <c r="H5" s="17">
+        <v>44972</v>
+      </c>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19">
-        <v>43465</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="17">
+        <v>44926</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="19">
-        <v>43466</v>
-      </c>
-      <c r="J6" s="32"/>
+      <c r="H6" s="17">
+        <v>44927</v>
+      </c>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="19">
-        <v>43496</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="17">
+        <v>44957</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="19">
-        <v>43516</v>
-      </c>
-      <c r="J7" s="32"/>
+      <c r="H7" s="17">
+        <v>44977</v>
+      </c>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="19">
-        <v>43518</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="17">
+        <v>44979</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="19">
-        <v>43520</v>
-      </c>
-      <c r="J8" s="32"/>
+      <c r="H8" s="17">
+        <v>44981</v>
+      </c>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="19">
-        <v>43435</v>
-      </c>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="17">
+        <v>44896</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="19">
-        <v>43500</v>
-      </c>
-      <c r="I9" s="19">
-        <v>43503</v>
-      </c>
-      <c r="J9" s="32"/>
+      <c r="H9" s="17">
+        <v>44961</v>
+      </c>
+      <c r="I9" s="17">
+        <v>44964</v>
+      </c>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="19">
-        <v>43435</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="17">
+        <v>44896</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="19">
-        <v>43512</v>
-      </c>
-      <c r="I10" s="19">
-        <v>43517</v>
-      </c>
-      <c r="J10" s="32"/>
+      <c r="H10" s="17">
+        <v>44973</v>
+      </c>
+      <c r="I10" s="17">
+        <v>44978</v>
+      </c>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="19">
-        <v>40204</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="17">
+        <v>44222</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="19">
-        <v>43493</v>
-      </c>
-      <c r="J11" s="32"/>
+      <c r="H11" s="17">
+        <v>44954</v>
+      </c>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19">
-        <v>40223</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="17">
+        <v>44241</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="19">
-        <v>43556</v>
-      </c>
-      <c r="J12" s="32"/>
+      <c r="H12" s="17">
+        <v>45017</v>
+      </c>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="19">
-        <v>43435</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="17">
+        <v>44896</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J14" s="32"/>
+      <c r="J14" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>

--- a/Examples/SimplePayroll/Payroll.Values.xlsx
+++ b/Examples/SimplePayroll/Payroll.Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\PayrollEngine\Repos\PayrollEngine\Examples\SimplePayroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4995C213-733C-4297-8094-6C5536FF9CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC1F77C-5917-4AFF-95E5-4E21869EDF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,27 +110,18 @@
     <t>NBU Satz</t>
   </si>
   <si>
-    <t>Monatslohn</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
     <t>6000</t>
   </si>
   <si>
-    <t>Beschäftigungsgrad</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
     <t>0.6</t>
   </si>
   <si>
-    <t>Abteilung</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>99999</t>
   </si>
   <si>
-    <t>Geburtsdatum</t>
-  </si>
-  <si>
     <t>SimplePayroll</t>
   </si>
   <si>
@@ -294,6 +282,18 @@
   </si>
   <si>
     <t>Shared Lookup with name &lt;Name&gt;</t>
+  </si>
+  <si>
+    <t>MonthlyWage</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>EmploymentLevel</t>
   </si>
 </sst>
 </file>
@@ -840,50 +840,50 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
@@ -902,7 +902,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>18</v>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>16</v>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>16</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>17</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>17</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>16</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>18</v>
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>16</v>
@@ -1133,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>16</v>
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>16</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>14</v>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>17</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>17</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>17</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>16</v>
@@ -1247,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>18</v>
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>16</v>
@@ -1273,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>16</v>
@@ -1285,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>16</v>
@@ -1294,23 +1294,23 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>3</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>16</v>
@@ -1335,10 +1335,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>3</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>3</v>
@@ -1360,23 +1360,23 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>16</v>
@@ -1401,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>3</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>3</v>
@@ -1464,19 +1464,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>4</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>19</v>
@@ -1563,19 +1563,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>4</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>20</v>
@@ -1601,7 +1601,7 @@
         <v>44562</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G2" s="17">
         <v>44562</v>
@@ -1655,7 +1655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1676,19 +1676,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>4</v>
@@ -1705,19 +1705,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F2" s="17">
         <v>44545</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="17">
         <v>44562</v>
@@ -1729,19 +1729,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F3" s="17">
         <v>44962</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="17">
         <v>44967</v>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F4" s="17">
         <v>44587</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="17">
         <v>44927</v>
@@ -1771,19 +1771,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F5" s="17">
         <v>44952</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="17">
         <v>44972</v>
@@ -1792,19 +1792,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F6" s="17">
         <v>44926</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="17">
         <v>44927</v>
@@ -1813,19 +1813,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F7" s="17">
         <v>44957</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="17">
         <v>44977</v>
@@ -1834,19 +1834,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F8" s="17">
         <v>44979</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="17">
         <v>44981</v>
@@ -1855,19 +1855,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="17">
         <v>44896</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H9" s="17">
         <v>44961</v>
@@ -1879,19 +1879,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F10" s="17">
         <v>44896</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="17">
         <v>44973</v>
@@ -1903,19 +1903,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="17">
         <v>44222</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="17">
         <v>44954</v>
@@ -1924,19 +1924,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="17">
         <v>44241</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="17">
         <v>45017</v>
@@ -1945,16 +1945,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F13" s="17">
         <v>44896</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J13" s="29"/>
     </row>

--- a/Examples/SimplePayroll/Payroll.Values.xlsx
+++ b/Examples/SimplePayroll/Payroll.Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\PayrollEngine\Repos\PayrollEngine\Examples\SimplePayroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC1F77C-5917-4AFF-95E5-4E21869EDF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7EB037-6E66-4679-B6F1-F7010319FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="83">
   <si>
-    <t>ASON Payroll Excel Import</t>
-  </si>
-  <si>
     <t>CaseFieldName</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>EmploymentLevel</t>
+  </si>
+  <si>
+    <t>Payroll Engine Excel Import</t>
   </si>
 </sst>
 </file>
@@ -809,26 +809,26 @@
   </sheetPr>
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD52"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="2.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -838,590 +838,590 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C8" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="D47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="D52" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1450,53 +1450,53 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="16" customWidth="1"/>
-    <col min="7" max="8" width="15.6328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="3" max="4" width="20.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="17">
         <v>46744</v>
@@ -1510,19 +1510,19 @@
       </c>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" s="29"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" s="29"/>
     </row>
   </sheetData>
@@ -1549,90 +1549,90 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="3" max="4" width="20.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="17">
         <v>44562</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="17">
         <v>44562</v>
       </c>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" s="29"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I11" s="29"/>
     </row>
   </sheetData>
@@ -1653,71 +1653,71 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="16" customWidth="1"/>
-    <col min="8" max="9" width="15.6328125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="20.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="16" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="17">
         <v>44545</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="17">
         <v>44562</v>
@@ -1727,147 +1727,147 @@
       </c>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="17">
         <v>44962</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="17">
         <v>44967</v>
       </c>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="17">
         <v>44587</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="17">
         <v>44927</v>
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="17">
         <v>44952</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="17">
         <v>44972</v>
       </c>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="17">
         <v>44926</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="17">
         <v>44927</v>
       </c>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="17">
         <v>44957</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="17">
         <v>44977</v>
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="17">
         <v>44979</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="17">
         <v>44981</v>
       </c>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="17">
         <v>44896</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="17">
         <v>44961</v>
@@ -1877,21 +1877,21 @@
       </c>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="17">
         <v>44896</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="17">
         <v>44973</v>
@@ -1901,64 +1901,64 @@
       </c>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="17">
         <v>44222</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="17">
         <v>44954</v>
       </c>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="17">
         <v>44241</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="17">
         <v>45017</v>
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="17">
         <v>44896</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J14" s="29"/>
     </row>
   </sheetData>
